--- a/projekt_1/LaLiga.xlsx
+++ b/projekt_1/LaLiga.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleš\Documents\ROM\projekt_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ROM\projekt_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,17 +438,17 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -499,11 +499,14 @@
       <c r="G2">
         <v>4</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -525,11 +528,14 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -548,11 +554,17 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -574,11 +586,14 @@
       <c r="G5">
         <v>3</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -600,11 +615,14 @@
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -623,11 +641,17 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -649,11 +673,14 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -675,11 +702,14 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -701,11 +731,14 @@
       <c r="G10">
         <v>3</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -727,11 +760,14 @@
       <c r="G11">
         <v>2</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -750,11 +786,17 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -773,11 +815,17 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -799,11 +847,14 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -825,11 +876,14 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -851,11 +905,14 @@
       <c r="G16">
         <v>2</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -877,11 +934,14 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -903,11 +963,14 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -929,11 +992,14 @@
       <c r="G19">
         <v>3</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -962,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -979,6 +1045,12 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">

--- a/projekt_1/LaLiga.xlsx
+++ b/projekt_1/LaLiga.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleš\Documents\ROM\projekt_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drago\Desktop\ROM-master\projekt_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Igralci</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Teža</t>
+  </si>
+  <si>
+    <t>Starost</t>
   </si>
 </sst>
 </file>
@@ -151,10 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -435,553 +439,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>173</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
         <v>73</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>936</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>184</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
         <v>82</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1620</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>191</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
         <v>81</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1247</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>180</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>760</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>174</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>926</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>176</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
         <v>66</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>550</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>178</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
         <v>68</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>239</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>183</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
         <v>76</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1246</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>172</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
         <v>66</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1291</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>185</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
         <v>84</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>991</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>181</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
         <v>78</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>78</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>184</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
         <v>73</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>281</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>182</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
         <v>76</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>997</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>176</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
         <v>79</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>594</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>179</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
         <v>70</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>706</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>182</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
         <v>76</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>205</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>185</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2">
         <v>81</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1442</v>
       </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>185</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
         <v>81</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1098</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>173</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
         <v>70</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>768</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>177</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
         <v>73</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>151</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>1</v>
       </c>
     </row>
